--- a/DaySale_2025-05-26_13-58.xlsx
+++ b/DaySale_2025-05-26_13-58.xlsx
@@ -144,6 +144,24 @@
   </si>
   <si>
     <t>130.0000</t>
+  </si>
+  <si>
+    <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>PRONTO PLUS 20 TAB.</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
   </si>
   <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
@@ -1123,7 +1141,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1140,7 +1158,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1149,14 +1167,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1166,11 +1184,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>25</v>
@@ -1182,14 +1200,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1199,14 +1217,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>54</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1222,7 +1240,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1255,7 +1273,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1265,14 +1283,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1281,31 +1299,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1314,66 +1332,132 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
         <v>68</v>
       </c>
-      <c t="s" r="Q21" s="12">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>31</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>69</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>70</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>72</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>31</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>69</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>73</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>25</v>
       </c>
     </row>
-    <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>864.13</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
-        <v>69</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
-        <v>70</v>
-      </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
-        <v>71</v>
-      </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>959.13</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
+        <v>75</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>76</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>77</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1457,10 +1541,20 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
